--- a/WorkBot/main/backend/ordering/OrderFiles/Ithaca Bakery/Ithaca Bakery_TRIPHAMMER_20250307.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Ithaca Bakery/Ithaca Bakery_TRIPHAMMER_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,6 +1414,133 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bag Paper - Baguette</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Butter - Salted</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dawn</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Jam - Raspberry Seedless</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>72.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>145.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PERF</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Vegan Egg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Goat Cheese</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
